--- a/VBA/項番統一/testdata/test.xlsx
+++ b/VBA/項番統一/testdata/test.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\項番統一\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93738EE0-F4FE-41B8-891B-94189E00F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F3114B-9074-4649-954D-3344128F2F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="1485" windowWidth="18615" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="1830" windowWidth="18615" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="expect" sheetId="2" r:id="rId2"/>
+    <sheet name="test_ORG" sheetId="4" r:id="rId1"/>
+    <sheet name="test" sheetId="6" r:id="rId2"/>
+    <sheet name="result" sheetId="5" r:id="rId3"/>
+    <sheet name="expect" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
   <si>
     <t>Major</t>
   </si>
@@ -88,87 +90,87 @@
     <t>7.3 Text</t>
   </si>
   <si>
+    <t>2.1.1 Addition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1.2 Tail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1.1 Extra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1 Summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1 Topic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2 Notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1 Detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 Introduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 Closing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'2 Introduction</t>
+  </si>
+  <si>
+    <t>'1.3 Detail</t>
+  </si>
+  <si>
+    <t>'1.5 Notes</t>
+  </si>
+  <si>
+    <t>'4</t>
+  </si>
+  <si>
+    <t>'3.2 Topic</t>
+  </si>
+  <si>
+    <t>'3.2.4 Addition</t>
+  </si>
+  <si>
+    <t>'3.2.6 Tail</t>
+  </si>
+  <si>
+    <t>' 6 Closing</t>
+  </si>
+  <si>
+    <t>' 6.4 Summary</t>
+  </si>
+  <si>
+    <t>' 6.4.2 Extra</t>
+  </si>
+  <si>
+    <t>7.3.5 Note</t>
+  </si>
+  <si>
     <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2 Introduction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 Closing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.4 Summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.2 Topic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.5 Notes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.3 Detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.2.4 Addition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.2.6 Tail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.4.2 Extra</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7.3.5 Note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.1.1 Addition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.1.2 Tail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1.1 Extra</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1 Summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.1 Topic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2 Notes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1 Detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 Introduction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 Closing</t>
+  </si>
+  <si>
+    <t>4.1 Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.1.1 Note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -212,9 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -494,20 +498,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C4D79-DECF-4E0E-8DDB-9B32836DC8B1}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -524,80 +523,80 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
+      <c r="A2" t="s">
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="1" t="s">
-        <v>26</v>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
-        <v>25</v>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" t="s">
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="C7" s="1" t="s">
-        <v>27</v>
+      <c r="C7" t="s">
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="1" t="s">
-        <v>28</v>
+      <c r="C8" t="s">
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
+      <c r="A9" t="s">
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+      <c r="B10" t="s">
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="C11" s="1" t="s">
-        <v>29</v>
+      <c r="C11" t="s">
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -621,7 +620,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -634,11 +633,282 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A8A3E6-EB4E-4D62-AF84-F450C57473DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6541E74-3A68-4057-B06E-D00888EE88D1}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F56E49D-94F4-4115-9592-6A908EA21A03}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A8A3E6-EB4E-4D62-AF84-F450C57473DF}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -665,7 +935,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -673,7 +943,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -681,7 +951,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -689,7 +959,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -697,7 +967,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -705,7 +975,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -713,7 +983,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -721,7 +991,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -729,7 +999,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -737,7 +1007,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>

--- a/VBA/項番統一/testdata/test.xlsx
+++ b/VBA/項番統一/testdata/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\項番統一\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F3114B-9074-4649-954D-3344128F2F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46B15D-9726-40C8-B93A-FE1F82C740E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1830" windowWidth="18615" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="1380" windowWidth="18615" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_ORG" sheetId="4" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -638,7 +638,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/VBA/項番統一/testdata/test.xlsx
+++ b/VBA/項番統一/testdata/test.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\項番統一\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46B15D-9726-40C8-B93A-FE1F82C740E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371CF58E-2107-44D8-BD2A-6DFAA9C73A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1380" windowWidth="18615" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18615" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_ORG" sheetId="4" r:id="rId1"/>
-    <sheet name="test" sheetId="6" r:id="rId2"/>
-    <sheet name="result" sheetId="5" r:id="rId3"/>
-    <sheet name="expect" sheetId="2" r:id="rId4"/>
+    <sheet name="test" sheetId="8" r:id="rId2"/>
+    <sheet name="expect" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Major</t>
   </si>
@@ -163,14 +162,26 @@
     <t>7.3.5 Note</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.1 Text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.1.1 Note</t>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2で取得</t>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -214,11 +225,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -500,7 +509,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C4D79-DECF-4E0E-8DDB-9B32836DC8B1}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -626,6 +635,19 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -633,12 +655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6541E74-3A68-4057-B06E-D00888EE88D1}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8631DE63-A5EF-4C16-A248-138FDEDD04A7}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -761,6 +783,19 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -768,147 +803,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F56E49D-94F4-4115-9592-6A908EA21A03}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A8A3E6-EB4E-4D62-AF84-F450C57473DF}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A8A3E6-EB4E-4D62-AF84-F450C57473DF}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1037,6 +937,19 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VBA/項番統一/testdata/test.xlsx
+++ b/VBA/項番統一/testdata/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\項番統一\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371CF58E-2107-44D8-BD2A-6DFAA9C73A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C0E6F-455B-42BF-B1F1-3ACA463993E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18615" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="810" windowWidth="18615" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_ORG" sheetId="4" r:id="rId1"/>
@@ -660,7 +660,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
